--- a/genshin/432130102905285799_2020-09-07_12-05-30.xlsx
+++ b/genshin/432130102905285799_2020-09-07_12-05-30.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:48:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11721064815</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-15 14:03:04</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44089.58546296296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-15 13:38:44</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44089.56856481481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:53:58</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44086.99581018519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-11 15:06:07</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44085.62924768519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -923,10 +929,8 @@
           <t>3474096851</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:40:47</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44083.90332175926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1002,10 +1006,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-09 11:12:30</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44083.46701388889</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1081,10 +1083,8 @@
           <t>3471935214</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-09 09:41:09</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44083.40357638889</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1152,10 +1152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-08 20:34:31</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44082.85730324074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1232,10 +1230,8 @@
           <t>3469483670</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-08 16:09:06</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44082.67298611111</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1307,10 +1303,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:45:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44082.57355324074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1378,10 +1372,8 @@
           <t>3465520881</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:45:19</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44082.57313657407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1449,10 +1441,8 @@
           <t>3465665691</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-08 13:44:40</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44082.57268518519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1520,10 +1510,8 @@
           <t>3468912718</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-08 12:28:16</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44082.51962962963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1591,10 +1579,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-08 11:49:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44082.49263888889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1670,10 +1656,8 @@
           <t>3468781297</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-08 11:45:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44082.4897337963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1741,10 +1725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:35:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44082.44105324074</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1816,10 +1798,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:31:33</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44082.43857638889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1887,10 +1867,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:31:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44082.43844907408</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1958,10 +1936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-08 10:12:49</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44082.42556712963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2037,10 +2013,8 @@
           <t>3467971354</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-08 08:34:47</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44082.35748842593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2108,10 +2082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-08 08:12:13</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44082.34181712963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2175,10 +2147,8 @@
           <t>3467971354</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-08 00:56:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44082.03896990741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2250,10 +2220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-07 23:50:34</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44081.99344907407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2325,10 +2293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-07 22:58:59</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44081.95762731481</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2400,10 +2366,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-07 22:45:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44081.948125</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2471,10 +2435,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-07 22:38:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44081.94347222222</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2550,10 +2512,8 @@
           <t>3467411751</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-07 22:25:10</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44081.93414351852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2625,10 +2585,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-07 21:59:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44081.91650462963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2700,10 +2658,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-07 21:55:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44081.91339120371</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2779,10 +2735,8 @@
           <t>3465520881</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-07 21:38:03</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44081.90142361111</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2846,10 +2800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-07 20:18:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44081.84585648148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2913,10 +2865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-07 20:18:00</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44081.84583333333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2976,10 +2926,8 @@
           <t>3465663109</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-07 20:09:04</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44081.83962962963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3043,10 +2991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-07 19:42:05</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44081.8208912037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3115,10 +3061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-07 19:01:10</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44081.79247685185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3194,10 +3138,8 @@
           <t>3465533148</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-07 18:46:49</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44081.78251157407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3273,10 +3215,8 @@
           <t>3466426866</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-07 18:24:23</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44081.76693287037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3352,10 +3292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-07 18:08:46</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44081.75608796296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3424,10 +3362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-07 18:06:19</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44081.75438657407</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3495,10 +3431,8 @@
           <t>3465433086</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:54:48</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44081.74638888889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3566,10 +3500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:42:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44081.73783564815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3645,10 +3577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:36:23</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44081.73359953704</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3724,10 +3654,8 @@
           <t>3465433086</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:33:12</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44081.73138888889</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3791,10 +3719,8 @@
           <t>3465500212</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:14:29</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44081.71839120371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3870,10 +3796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:04:18</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44081.71131944445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3941,10 +3865,8 @@
           <t>3466158880</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:02:58</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44081.71039351852</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4012,10 +3934,8 @@
           <t>3466146803</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-07 17:00:37</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44081.70876157407</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4083,10 +4003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:58:13</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44081.7070949074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4162,10 +4080,8 @@
           <t>3466130438</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:53:22</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44081.70372685185</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4241,10 +4157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:44:35</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44081.69762731482</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4312,10 +4226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:43:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44081.69690972222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4383,10 +4295,8 @@
           <t>3466087232</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:37:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44081.69277777777</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4446,10 +4356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:29:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44081.68708333333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4509,10 +4417,8 @@
           <t>3466038165</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:15:46</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44081.67761574074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4576,10 +4482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:15:40</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44081.6775462963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4643,10 +4547,8 @@
           <t>3465928044</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:13:02</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44081.6757175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4710,10 +4612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:07:58</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44081.67219907408</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4785,10 +4685,8 @@
           <t>3466002984</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:00:50</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44081.66724537037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4852,10 +4750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-07 16:00:14</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44081.6668287037</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4919,10 +4815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:59:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44081.66631944444</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4998,10 +4892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:59:23</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44081.66623842593</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5073,10 +4965,8 @@
           <t>3465449792</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:53:29</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44081.66214120371</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5148,10 +5038,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:50:16</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44081.6599074074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5219,10 +5107,8 @@
           <t>3465977224</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:49:16</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44081.65921296296</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5299,10 +5185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:43:24</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44081.65513888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5374,10 +5258,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:33:27</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44081.64822916667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5453,10 +5335,8 @@
           <t>3465928044</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:27:52</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44081.64435185185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5532,10 +5412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:23:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44081.64129629629</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5599,10 +5477,8 @@
           <t>3465916109</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:21:13</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44081.6397337963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5670,10 +5546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-07 15:04:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44081.62820601852</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5741,10 +5615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:55:45</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44081.62204861111</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5816,10 +5688,8 @@
           <t>3465428473</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:51:38</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44081.61918981482</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5891,10 +5761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:47:32</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44081.61634259259</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5970,10 +5838,8 @@
           <t>3465835620</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:43:17</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44081.6133912037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6046,10 +5912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:31:39</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44081.6053125</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6113,10 +5977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:25:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44081.60118055555</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6184,10 +6046,8 @@
           <t>3465533148</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:23:55</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44081.59994212963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6255,10 +6115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:23:33</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44081.5996875</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6326,10 +6184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:22:50</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44081.59918981481</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6393,10 +6249,8 @@
           <t>3465533148</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:22:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44081.59898148148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6472,10 +6326,8 @@
           <t>3465665691</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:21:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44081.59849537037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6551,10 +6403,8 @@
           <t>3465784057</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:21:27</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44081.59822916667</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6626,10 +6476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:18:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44081.59636574074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6707,10 +6555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:18:26</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44081.59613425926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6774,10 +6620,8 @@
           <t>3465758742</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:11:32</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44081.59134259259</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6845,10 +6689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:09:57</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44081.59024305556</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6920,10 +6762,8 @@
           <t>3465757310</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:09:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44081.59008101852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6991,10 +6831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:08:52</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44081.58949074074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7066,10 +6904,8 @@
           <t>3465387966</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:08:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44081.58929398148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7145,10 +6981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:07:50</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44081.58877314815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7216,10 +7050,8 @@
           <t>3465749071</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:07:28</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44081.58851851852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7287,10 +7119,8 @@
           <t>3465745968</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:03:28</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44081.58574074074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7358,10 +7188,8 @@
           <t>3465665691</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:02:44</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44081.58523148148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7429,10 +7257,8 @@
           <t>3465621874</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:02:22</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44081.58497685185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7501,10 +7327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-07 14:00:56</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44081.58398148148</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7580,10 +7404,8 @@
           <t>3465737055</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:58:54</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44081.58256944444</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7648,10 +7470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:58:02</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44081.5819675926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7715,10 +7535,8 @@
           <t>3465449109</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:55:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44081.57997685186</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7782,10 +7600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:54:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44081.57930555556</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7853,10 +7669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:53:48</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44081.57902777778</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7924,10 +7738,8 @@
           <t>3465520881</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:51:28</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44081.57740740741</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7995,10 +7807,8 @@
           <t>3465516192</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:50:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44081.57707175926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8066,10 +7876,8 @@
           <t>3465474780</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:50:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44081.57674768518</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8137,10 +7945,8 @@
           <t>3465478665</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:49:05</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44081.57575231481</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8216,10 +8022,8 @@
           <t>3465473487</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:48:52</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44081.57560185185</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8287,10 +8091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:48:40</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44081.57546296297</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8366,10 +8168,8 @@
           <t>3465464960</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:48:18</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44081.57520833334</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8437,10 +8237,8 @@
           <t>3465707719</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:47:04</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44081.57435185185</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8516,10 +8314,8 @@
           <t>3465422226</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:45:05</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44081.57297453703</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8587,10 +8383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:44:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44081.57255787037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8662,10 +8456,8 @@
           <t>3465416891</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:43:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44081.57162037037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8733,10 +8525,8 @@
           <t>3465387966</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:40:58</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44081.57011574074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8808,10 +8598,8 @@
           <t>3465681955</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:39:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44081.56916666667</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8887,10 +8675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:38:34</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44081.56844907408</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8962,10 +8748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:37:29</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44081.56769675926</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9033,10 +8817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:36:30</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44081.56701388889</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9104,10 +8886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:34:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44081.56565972222</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9175,10 +8955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:34:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44081.56527777778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9250,10 +9028,8 @@
           <t>3465676265</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:33:35</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44081.56498842593</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9321,10 +9097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:33:10</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44081.56469907407</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9388,10 +9162,8 @@
           <t>3465665691</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:32:42</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44081.564375</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9467,10 +9239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:31:42</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44081.56368055556</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9547,10 +9317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:31:34</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44081.56358796296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9614,10 +9382,8 @@
           <t>3465663109</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:29:58</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44081.56247685185</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9693,10 +9459,8 @@
           <t>3465428473</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:28:53</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44081.56172453704</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9764,10 +9528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:27:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44081.56074074074</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9831,10 +9593,8 @@
           <t>3465433086</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:25:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44081.55969907407</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9902,10 +9662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:23:59</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44081.55832175926</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9973,10 +9731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:22:55</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44081.55758101852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10044,10 +9800,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:22:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44081.55721064815</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10115,10 +9869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:21:37</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44081.55667824074</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10190,10 +9942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:21:11</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44081.55637731482</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10261,10 +10011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:18:16</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44081.55435185185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10341,10 +10089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:17:47</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44081.55401620371</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10412,10 +10158,8 @@
           <t>3465621874</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:17:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44081.55391203704</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10479,10 +10223,8 @@
           <t>3465539974</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:17:13</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44081.55362268518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10558,10 +10300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:15:04</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44081.55212962963</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10621,10 +10361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:14:51</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44081.55197916667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10696,10 +10434,8 @@
           <t>3465617439</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:14:13</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44081.55153935185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10771,10 +10507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:13:26</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44081.55099537037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10850,10 +10584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:13:10</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44081.55081018519</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10925,10 +10657,8 @@
           <t>3465594174</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44081.54850694445</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11004,10 +10734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44081.5484375</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11071,10 +10799,8 @@
           <t>3465602344</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:09:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44081.54822916666</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11150,10 +10876,8 @@
           <t>3465600612</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:07:49</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44081.54709490741</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11225,10 +10949,8 @@
           <t>3465590923</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:42</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44081.54631944445</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11292,10 +11014,8 @@
           <t>3465584226</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:34</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44081.54622685185</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11363,10 +11083,8 @@
           <t>3465588705</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:06:03</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44081.54586805555</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11434,10 +11152,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:23</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44081.54540509259</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11509,10 +11225,8 @@
           <t>3465587767</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:11</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44081.54526620371</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11580,10 +11294,8 @@
           <t>3465582554</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:02</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44081.54516203704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11651,10 +11363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:05:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44081.54515046296</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11726,10 +11436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:04:16</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44081.54462962963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11801,10 +11509,8 @@
           <t>3465461166</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:04:11</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44081.54457175926</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11872,10 +11578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:04:03</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44081.54447916667</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11944,10 +11648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:03:21</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44081.54399305556</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12024,10 +11726,8 @@
           <t>3465574984</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:02:40</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44081.54351851852</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12104,10 +11804,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:02:34</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44081.54344907407</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12171,10 +11869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:02:16</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44081.54324074074</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12243,10 +11939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:01:53</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44081.54297453703</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12314,10 +12008,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-07 13:00:24</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44081.54194444444</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12385,10 +12077,8 @@
           <t>3465565687</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:59:42</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44081.54145833333</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12464,10 +12154,8 @@
           <t>3465565687</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:58:46</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44081.54081018519</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12539,10 +12227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:57:17</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44081.53978009259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12610,10 +12296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:55:14</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44081.53835648148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12685,10 +12369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:40</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44081.53796296296</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12764,10 +12446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44081.53773148148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12843,10 +12523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:19</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44081.53771990741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12906,10 +12584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:08</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44081.53759259259</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12981,10 +12657,8 @@
           <t>3465547233</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:54:04</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44081.5375462963</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13060,10 +12734,8 @@
           <t>3465539974</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:53:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44081.53726851852</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13131,10 +12803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:52:57</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44081.53677083334</v>
       </c>
       <c r="I174" t="n">
         <v>4</v>
@@ -13210,10 +12880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:52:30</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44081.53645833334</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13289,10 +12957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:52:19</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44081.53633101852</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13360,10 +13026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:52:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44081.53631944444</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13431,10 +13095,8 @@
           <t>3465537352</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:51:27</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44081.53572916667</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13498,10 +13160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:51:25</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44081.53570601852</v>
       </c>
       <c r="I179" t="n">
         <v>8</v>
@@ -13565,10 +13225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:59</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44081.5354050926</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13645,10 +13303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:51</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44081.5353125</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13724,10 +13380,8 @@
           <t>3465541312</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:36</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44081.53513888889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13799,10 +13453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:34</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44081.53511574074</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13878,10 +13530,8 @@
           <t>3465533148</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:30</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44081.53506944444</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13949,10 +13599,8 @@
           <t>3465536123</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44081.53497685185</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14020,10 +13668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:18</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44081.53493055556</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14099,10 +13745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:17</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44081.53491898148</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14174,10 +13818,8 @@
           <t>3465532542</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:00</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44081.53472222222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14249,10 +13891,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:50:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44081.53472222222</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14320,10 +13960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:49:55</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44081.53466435185</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14391,10 +14029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:49:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44081.53450231482</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14470,10 +14106,8 @@
           <t>3465524728</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:49:13</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44081.53417824074</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14545,10 +14179,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:49:09</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44081.53413194444</v>
       </c>
       <c r="I193" t="n">
         <v>8</v>
@@ -14620,10 +14252,8 @@
           <t>3465529489</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:49:06</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44081.53409722223</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14691,10 +14321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:57</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44081.53399305556</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -14762,10 +14390,8 @@
           <t>3465454588</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:35</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44081.53373842593</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14841,10 +14467,8 @@
           <t>3465523607</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:19</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44081.53355324074</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14908,10 +14532,8 @@
           <t>3465478665</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44081.53350694444</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14989,10 +14611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:14</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44081.53349537037</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15064,10 +14684,8 @@
           <t>3465528262</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44081.53342592593</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15143,10 +14761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44081.53341435185</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15214,10 +14830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:04</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44081.53337962963</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15293,10 +14907,8 @@
           <t>3465530081</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:48:01</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44081.53334490741</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15368,10 +14980,8 @@
           <t>3465523176</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:59</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44081.53332175926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15435,10 +15045,8 @@
           <t>3465522117</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:08</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44081.53273148148</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15506,10 +15114,8 @@
           <t>3465518978</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:08</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44081.53273148148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15585,10 +15191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:05</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44081.53269675926</v>
       </c>
       <c r="I207" t="n">
         <v>6</v>
@@ -15656,10 +15260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:47:04</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44081.53268518519</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15729,10 +15331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:59</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44081.53262731482</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15808,10 +15408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:50</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44081.53252314815</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15875,10 +15473,8 @@
           <t>3465384579</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44081.53212962963</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15946,10 +15542,8 @@
           <t>3465520881</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:46:03</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44081.53197916667</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16014,10 +15608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:45:43</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44081.53174768519</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16093,10 +15685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:45:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44081.53166666667</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16164,10 +15754,8 @@
           <t>3465509605</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:56</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44081.5312037037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16243,10 +15831,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:52</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44081.53115740741</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16322,10 +15908,8 @@
           <t>3465514105</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:49</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44081.53112268518</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16397,10 +15981,8 @@
           <t>3465507517</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:48</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44081.53111111111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16479,10 +16061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:40</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44081.53101851852</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16547,10 +16127,8 @@
           <t>3465516192</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:40</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44081.53101851852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16626,10 +16204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:27</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44081.53086805555</v>
       </c>
       <c r="I221" t="n">
         <v>5</v>
@@ -16697,10 +16273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:44:15</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44081.53072916667</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16764,10 +16338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:43:11</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44081.52998842593</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16835,10 +16407,8 @@
           <t>3465507517</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:43:10</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44081.52997685185</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16906,10 +16476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:43:01</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44081.52987268518</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16969,10 +16537,8 @@
           <t>3465507216</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:42:56</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44081.52981481481</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17040,10 +16606,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:42:37</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44081.52959490741</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17119,10 +16683,8 @@
           <t>3465428473</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:42:17</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44081.52936342593</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17194,10 +16756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:48</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44081.52902777777</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17269,10 +16829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:38</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44081.52891203704</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17336,10 +16894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:35</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44081.52887731481</v>
       </c>
       <c r="I231" t="n">
         <v>23</v>
@@ -17403,10 +16959,8 @@
           <t>3465501987</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:41:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44081.52853009259</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17474,10 +17028,8 @@
           <t>3465494360</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:40:29</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44081.52811342593</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17545,10 +17097,8 @@
           <t>3465494171</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:40:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44081.52802083334</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17612,10 +17162,8 @@
           <t>3465488001</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:40:18</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44081.52798611111</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17691,10 +17239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:40:00</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44081.52777777778</v>
       </c>
       <c r="I236" t="n">
         <v>7</v>
@@ -17770,10 +17316,8 @@
           <t>3465497943</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:41</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44081.52755787037</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17845,10 +17389,8 @@
           <t>3465500212</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44081.52748842593</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17916,10 +17458,8 @@
           <t>3465488001</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:24</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44081.52736111111</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17995,10 +17535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:18</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44081.52729166667</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -18066,10 +17604,8 @@
           <t>3465486960</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:16</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44081.52726851852</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18146,10 +17682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:05</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44081.5271412037</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18217,10 +17751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:39:01</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44081.5270949074</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -18296,10 +17828,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:38:49</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44081.52695601852</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18367,10 +17897,8 @@
           <t>3465489204</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:38:44</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44081.52689814815</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18446,10 +17974,8 @@
           <t>3465486960</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:38:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44081.52670138889</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18513,10 +18039,8 @@
           <t>3465488001</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:37:44</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44081.5262037037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18580,10 +18104,8 @@
           <t>3465446420</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:37:18</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44081.52590277778</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18660,10 +18182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:37:14</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44081.52585648148</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18739,10 +18259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:37:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44081.52581018519</v>
       </c>
       <c r="I250" t="n">
         <v>8</v>
@@ -18814,10 +18332,8 @@
           <t>3465458176</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:37:08</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44081.52578703704</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18889,10 +18405,8 @@
           <t>3465490174</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:36:58</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44081.52567129629</v>
       </c>
       <c r="I252" t="n">
         <v>6</v>
@@ -18960,10 +18474,8 @@
           <t>3465486960</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:36:49</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44081.52556712963</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19039,10 +18551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:36:14</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44081.52516203704</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19106,10 +18616,8 @@
           <t>3465479066</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:59</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44081.52498842592</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19182,10 +18690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:56</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44081.5249537037</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19257,10 +18763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:55</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44081.52494212963</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19328,10 +18832,8 @@
           <t>3465478665</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:38</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44081.52474537037</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19407,10 +18909,8 @@
           <t>3465485351</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:25</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44081.52459490741</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19483,10 +18983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:22</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44081.52456018519</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19550,10 +19048,8 @@
           <t>3465433086</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:20</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44081.52453703704</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19625,10 +19121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:17</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44081.52450231482</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19704,10 +19198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:06</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44081.524375</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19779,10 +19271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:35:00</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44081.52430555555</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19854,10 +19344,8 @@
           <t>3465474780</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:55</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44081.52424768519</v>
       </c>
       <c r="I265" t="n">
         <v>4</v>
@@ -19933,10 +19421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:27</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44081.52392361111</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -20004,10 +19490,8 @@
           <t>3465474183</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:22</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44081.52386574074</v>
       </c>
       <c r="I267" t="n">
         <v>8</v>
@@ -20075,10 +19559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:18</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44081.52381944445</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20146,10 +19628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44081.52380787037</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20217,10 +19697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:34:07</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44081.52369212963</v>
       </c>
       <c r="I270" t="n">
         <v>5</v>
@@ -20293,10 +19771,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:51</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44081.52350694445</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20364,10 +19840,8 @@
           <t>3465473487</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:48</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44081.52347222222</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20435,10 +19909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:33</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44081.52329861111</v>
       </c>
       <c r="I273" t="n">
         <v>5</v>
@@ -20506,10 +19978,8 @@
           <t>3465480521</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:30</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44081.52326388889</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20581,10 +20051,8 @@
           <t>3465472758</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:10</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44081.52303240741</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20660,10 +20128,8 @@
           <t>3465475642</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44081.52296296296</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20740,10 +20206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:33:01</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44081.52292824074</v>
       </c>
       <c r="I277" t="n">
         <v>5</v>
@@ -20811,10 +20275,8 @@
           <t>3465428473</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:32:59</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44081.52290509259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20882,10 +20344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:32:53</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44081.52283564815</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20957,10 +20417,8 @@
           <t>3465464960</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:32:31</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44081.52258101852</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21028,10 +20486,8 @@
           <t>3465471942</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:32:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44081.52253472222</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21099,10 +20555,8 @@
           <t>3465471629</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:32:11</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44081.52234953704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21166,10 +20620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:57</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44081.5221875</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -21245,10 +20697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:56</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44081.52217592593</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21324,10 +20774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:49</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44081.52209490741</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21403,10 +20851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:44</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44081.52203703704</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21482,10 +20928,8 @@
           <t>3465470958</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:34</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44081.5219212963</v>
       </c>
       <c r="I287" t="n">
         <v>5</v>
@@ -21553,10 +20997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:29</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44081.52186342593</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21624,10 +21066,8 @@
           <t>3465454588</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:22</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44081.52178240741</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21703,10 +21143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44081.52162037037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21770,10 +21208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:31:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44081.52158564814</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21849,10 +21285,8 @@
           <t>3465461166</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:51</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44081.52142361111</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21920,10 +21354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:50</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44081.52141203704</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22002,10 +21434,8 @@
           <t>3465462800</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:39</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44081.52128472222</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22077,10 +21507,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:38</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44081.52127314815</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22156,10 +21584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:33</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44081.52121527777</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22235,10 +21661,8 @@
           <t>3465446420</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:25</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44081.52112268518</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22310,10 +21734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:30:18</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44081.52104166667</v>
       </c>
       <c r="I298" t="n">
         <v>62</v>
@@ -22385,10 +21807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44081.52061342593</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22456,10 +21876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44081.5205787037</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22531,10 +21949,8 @@
           <t>3465454588</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:36</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44081.52055555556</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22610,10 +22026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:34</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44081.5205324074</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22689,10 +22103,8 @@
           <t>3465453694</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:28</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44081.52046296297</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22768,10 +22180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:27</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44081.52045138889</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22843,10 +22253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:27</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44081.52045138889</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22922,10 +22330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:19</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44081.5203587963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22993,10 +22399,8 @@
           <t>3465461166</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:14</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44081.52030092593</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23068,10 +22472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:12</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44081.52027777778</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23143,10 +22545,8 @@
           <t>3465458176</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:29:09</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44081.52024305556</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -23214,10 +22614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:28:49</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44081.52001157407</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23295,10 +22693,8 @@
           <t>3465454958</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:28:46</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44081.51997685185</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23366,10 +22762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:28:30</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44081.51979166667</v>
       </c>
       <c r="I312" t="n">
         <v>7</v>
@@ -23445,10 +22839,8 @@
           <t>3465454588</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:28:27</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44081.51975694444</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23524,10 +22916,8 @@
           <t>3465449792</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:28:02</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44081.5194675926</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23605,10 +22995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:55</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44081.51938657407</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23685,10 +23073,8 @@
           <t>3465453694</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:41</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44081.51922453703</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23756,10 +23142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:40</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44081.51921296296</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23835,10 +23219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:32</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44081.51912037037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23914,10 +23296,8 @@
           <t>3465449109</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44081.5190625</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23985,10 +23365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:25</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44081.51903935185</v>
       </c>
       <c r="I320" t="n">
         <v>5</v>
@@ -24061,10 +23439,8 @@
           <t>3465392350</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:23</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44081.5190162037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24132,10 +23508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:22</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44081.51900462963</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24207,10 +23581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:21</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44081.51899305556</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24286,10 +23658,8 @@
           <t>3465384579</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:07</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44081.51883101852</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24365,10 +23735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:27:04</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44081.5187962963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24440,10 +23808,8 @@
           <t>3465455634</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:55</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44081.51869212963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24507,10 +23873,8 @@
           <t>3465452805</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:55</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44081.51869212963</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24580,10 +23944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:40</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44081.51851851852</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24651,10 +24013,8 @@
           <t>3465455298</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:37</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44081.5184837963</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24730,10 +24090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:29</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44081.5183912037</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24809,10 +24167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:19</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44081.51827546296</v>
       </c>
       <c r="I331" t="n">
         <v>3</v>
@@ -24876,10 +24232,8 @@
           <t>3465452040</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:16</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44081.51824074074</v>
       </c>
       <c r="I332" t="n">
         <v>5</v>
@@ -24951,10 +24305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:26:01</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44081.51806712963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25026,10 +24378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:54</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44081.51798611111</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -25097,10 +24447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:38</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44081.51780092593</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25168,10 +24516,8 @@
           <t>3465444156</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:38</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44081.51780092593</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25247,10 +24593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:31</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44081.51771990741</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25318,10 +24662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:25</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44081.51765046296</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25393,10 +24735,8 @@
           <t>3465443827</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:21</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44081.51760416666</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25464,10 +24804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:20</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44081.51759259259</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25543,10 +24881,8 @@
           <t>3465443681</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:14</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44081.51752314815</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25618,10 +24954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:13</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44081.51751157407</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25685,10 +25019,8 @@
           <t>3465446420</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:06</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44081.51743055556</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25765,10 +25097,8 @@
           <t>3465402194</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:04</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44081.51740740741</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25844,10 +25174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:25:01</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44081.51737268519</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25923,10 +25251,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:58</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44081.51733796296</v>
       </c>
       <c r="I346" t="n">
         <v>3</v>
@@ -25994,10 +25320,8 @@
           <t>3465443188</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:49</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44081.51723379629</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26065,10 +25389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:47</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44081.51721064815</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26132,10 +25454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:43</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44081.51716435186</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26211,10 +25531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:38</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44081.51710648148</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26290,10 +25608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:33</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44081.51704861111</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26369,10 +25685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:32</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44081.51703703704</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26444,10 +25758,8 @@
           <t>3465445791</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:32</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44081.51703703704</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26516,10 +25828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:23</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44081.51693287037</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26587,10 +25897,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:08</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44081.51675925926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26658,10 +25966,8 @@
           <t>3465442374</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:24:07</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44081.51674768519</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26730,10 +26036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:57</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44081.51663194445</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26805,10 +26109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:52</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44081.51657407408</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26884,10 +26186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:52</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44081.51657407408</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26959,10 +26259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:50</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44081.51655092592</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -27036,10 +26334,8 @@
           <t>3465434950</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:47</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44081.5165162037</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27108,10 +26404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:45</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44081.51649305555</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27179,10 +26473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:42</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44081.51645833333</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27259,10 +26551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:38</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44081.51641203704</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27338,10 +26628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:35</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44081.51637731482</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27417,10 +26705,8 @@
           <t>3465398254</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:29</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44081.51630787037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27488,10 +26774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:25</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44081.51626157408</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27555,10 +26839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:20</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44081.5162037037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27627,10 +26909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:18</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44081.51618055555</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27702,10 +26982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:17</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44081.51616898148</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27773,10 +27051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:16</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44081.51615740741</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27848,10 +27124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:09</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44081.51607638889</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27927,10 +27201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:09</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44081.51607638889</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28006,10 +27278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:07</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44081.51605324074</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28085,10 +27355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:06</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44081.51604166667</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28156,10 +27424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:23:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44081.51604166667</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28231,10 +27497,8 @@
           <t>3465441033</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:53</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44081.5158912037</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28294,10 +27558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:52</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44081.51587962963</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28361,10 +27623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:50</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44081.51585648148</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28436,10 +27696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:48</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44081.51583333333</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28503,10 +27761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:45</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44081.51579861111</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28582,10 +27838,8 @@
           <t>3465436207</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:43</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44081.51577546296</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28653,10 +27907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:41</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44081.51575231482</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28724,10 +27976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:39</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44081.51572916667</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28803,10 +28053,8 @@
           <t>3465402194</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:39</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44081.51572916667</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28882,10 +28130,8 @@
           <t>3465437622</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44081.515625</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28957,10 +28203,8 @@
           <t>3465433086</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:10</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44081.51539351852</v>
       </c>
       <c r="I387" t="n">
         <v>13</v>
@@ -29028,10 +28272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:22:07</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44081.5153587963</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29099,10 +28341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:57</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44081.51524305555</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29171,10 +28411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:46</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44081.51511574074</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29250,10 +28488,8 @@
           <t>3465419299</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:34</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44081.51497685185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29329,10 +28565,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:32</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44081.51495370371</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29400,10 +28634,8 @@
           <t>3465395633</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:29</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44081.51491898148</v>
       </c>
       <c r="I393" t="n">
         <v>2</v>
@@ -29467,10 +28699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:17</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44081.51478009259</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29542,10 +28772,8 @@
           <t>3465436207</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:15</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44081.51475694445</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29613,10 +28841,8 @@
           <t>3465398254</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:21:05</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44081.51464120371</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29684,10 +28910,8 @@
           <t>3465428473</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:20:36</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44081.51430555555</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29759,10 +28983,8 @@
           <t>3465397513</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:20:13</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44081.51403935185</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29830,10 +29052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:20:10</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44081.51400462963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29905,10 +29125,8 @@
           <t>3465427942</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:20:08</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44081.51398148148</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29972,10 +29190,8 @@
           <t>3465430213</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:19:41</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44081.51366898148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30039,10 +29255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:19:33</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44081.51357638889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30102,10 +29316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:19:12</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44081.51333333334</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30173,10 +29385,8 @@
           <t>3465419299</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:18:53</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44081.51311342593</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30248,10 +29458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:18:42</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44081.51298611111</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30319,10 +29527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:18:35</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44081.51290509259</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30386,10 +29592,8 @@
           <t>3465416891</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:18:17</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44081.51269675926</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30465,10 +29669,8 @@
           <t>3465418351</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:17:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44081.51248842593</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30532,10 +29734,8 @@
           <t>3465422226</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:17:44</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44081.51231481481</v>
       </c>
       <c r="I409" t="n">
         <v>2</v>
@@ -30611,10 +29811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:17:29</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44081.5121412037</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30674,10 +29872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:17:02</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44081.5118287037</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30753,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:51</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44081.51170138889</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30832,10 +30026,8 @@
           <t>3465421045</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:44</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44081.51162037037</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30903,10 +30095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:42</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44081.51159722222</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30970,10 +30160,8 @@
           <t>3465416891</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:40</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44081.51157407407</v>
       </c>
       <c r="I415" t="n">
         <v>23</v>
@@ -31045,10 +30233,8 @@
           <t>3465416827</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:38</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44081.51155092593</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31112,10 +30298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:17</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44081.51130787037</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31191,10 +30375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:16:08</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44081.5112037037</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -31270,10 +30452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:59</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44081.51109953703</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31341,10 +30521,8 @@
           <t>3465406621</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:58</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44081.51108796296</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31420,10 +30598,8 @@
           <t>3465413404</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:54</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44081.51104166666</v>
       </c>
       <c r="I421" t="n">
         <v>40</v>
@@ -31491,10 +30667,8 @@
           <t>3465412859</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:25</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44081.51070601852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31570,10 +30744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:19</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44081.51063657407</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31646,10 +30818,8 @@
           <t>3465395633</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:15</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44081.51059027778</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31726,10 +30896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:15:14</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44081.5105787037</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31797,10 +30965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:56</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44081.51037037037</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31872,10 +31038,8 @@
           <t>3465409060</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:56</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44081.51037037037</v>
       </c>
       <c r="I427" t="n">
         <v>19</v>
@@ -31940,10 +31104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44081.51035879629</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -32003,10 +31165,8 @@
           <t>3465409020</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:53</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44081.51033564815</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32074,10 +31234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:52</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44081.51032407407</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32149,10 +31307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:50</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44081.51030092593</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32228,10 +31384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:43</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44081.51021990741</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32299,10 +31453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:36</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44081.51013888889</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32374,10 +31526,8 @@
           <t>3465404542</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44081.51004629629</v>
       </c>
       <c r="I434" t="n">
         <v>7</v>
@@ -32453,10 +31603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:21</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44081.50996527778</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32520,10 +31668,8 @@
           <t>3465411757</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:21</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44081.50996527778</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32591,10 +31737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:20</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44081.5099537037</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32662,10 +31806,8 @@
           <t>3465404408</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:20</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44081.5099537037</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32733,10 +31875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:16</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44081.50990740741</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32812,10 +31952,8 @@
           <t>3465408377</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:16</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44081.50990740741</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32891,10 +32029,8 @@
           <t>3465404187</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:14:07</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44081.50980324074</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32970,10 +32106,8 @@
           <t>3465407957</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:53</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44081.5096412037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33049,10 +32183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44081.50961805556</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -33116,10 +32248,8 @@
           <t>3465402194</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:46</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44081.50956018519</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -33195,10 +32325,8 @@
           <t>3465411151</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:45</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44081.50954861111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33270,10 +32398,8 @@
           <t>3465411121</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:43</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44081.50952546296</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33333,10 +32459,8 @@
           <t>3465411094</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:42</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44081.50951388889</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33404,10 +32528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:34</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44081.50942129629</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33479,10 +32601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:31</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44081.50938657407</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33550,10 +32670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:21</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44081.50927083333</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -33625,10 +32743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:16</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44081.50921296296</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33700,10 +32816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:16</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44081.50921296296</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33772,10 +32886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:13:06</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44081.50909722222</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33847,10 +32959,8 @@
           <t>3465410304</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:56</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44081.50898148148</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33926,10 +33036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:45</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44081.50885416667</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -34005,10 +33113,8 @@
           <t>3465406747</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:45</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44081.50885416667</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34084,10 +33190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44081.50880787037</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34155,10 +33259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:40</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44081.50879629629</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34230,10 +33332,8 @@
           <t>3465402624</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:39</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44081.50878472222</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34297,10 +33397,8 @@
           <t>3465406621</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:37</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44081.50876157408</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34376,10 +33474,8 @@
           <t>3465397513</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:34</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44081.50872685185</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34451,10 +33547,8 @@
           <t>3465384990</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:34</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44081.50872685185</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34522,10 +33616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:30</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44081.50868055555</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34593,10 +33685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:27</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44081.50864583333</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34672,10 +33762,8 @@
           <t>3465402291</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:21</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44081.50857638889</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34751,10 +33839,8 @@
           <t>3465402242</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44081.50854166667</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34826,10 +33912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:17</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44081.50853009259</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34905,10 +33989,8 @@
           <t>3465402194</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:16</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44081.50851851852</v>
       </c>
       <c r="I468" t="n">
         <v>25</v>
@@ -34989,10 +34071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:12</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44081.50847222222</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -35056,10 +34136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:12:02</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44081.50835648148</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35127,10 +34205,8 @@
           <t>3465401875</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:58</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44081.50831018519</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35206,10 +34282,8 @@
           <t>3465405812</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:52</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44081.50824074074</v>
       </c>
       <c r="I472" t="n">
         <v>58</v>
@@ -35277,10 +34351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:38</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44081.5080787037</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35356,10 +34428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:36</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44081.50805555555</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35423,10 +34493,8 @@
           <t>3465405502</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:36</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44081.50805555555</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35494,10 +34562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:33</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44081.50802083333</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35565,10 +34631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:27</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44081.50795138889</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35628,10 +34692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:26</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44081.50793981482</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35699,10 +34761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:25</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44081.50792824074</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35780,10 +34840,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:21</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44081.50788194445</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35855,10 +34913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:18</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44081.50784722222</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35918,10 +34974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:09</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44081.50774305555</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35989,10 +35043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:11:03</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44081.50767361111</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -36064,10 +35116,8 @@
           <t>3465400784</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:57</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44081.50760416667</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36143,10 +35193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:56</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44081.50759259259</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36215,10 +35263,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:55</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44081.50758101852</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36290,10 +35336,8 @@
           <t>3465398254</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:54</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44081.50756944445</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36369,10 +35413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:52</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44081.5075462963</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36444,10 +35486,8 @@
           <t>3465398154</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:48</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44081.5075</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36518,10 +35558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:42</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44081.50743055555</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36597,10 +35635,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44081.50740740741</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36672,10 +35708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:37</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44081.50737268518</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36743,10 +35777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:28</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44081.50726851852</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36818,10 +35850,8 @@
           <t>3465400209</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:23</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44081.50721064815</v>
       </c>
       <c r="I494" t="n">
         <v>4</v>
@@ -36897,10 +35927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:16</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44081.50712962963</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36972,10 +36000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:14</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44081.50710648148</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -37051,10 +36077,8 @@
           <t>3465397513</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:11</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44081.50707175926</v>
       </c>
       <c r="I497" t="n">
         <v>33</v>
@@ -37127,10 +36151,8 @@
           <t>3465392143</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:10</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44081.50706018518</v>
       </c>
       <c r="I498" t="n">
         <v>2</v>
@@ -37206,10 +36228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:07</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44081.50702546296</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37273,10 +36293,8 @@
           <t>3465393894</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:07</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44081.50702546296</v>
       </c>
       <c r="I500" t="n">
         <v>7</v>
@@ -37353,10 +36371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:10:06</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44081.50701388889</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37424,10 +36440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:54</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44081.506875</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37495,10 +36509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:51</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44081.50684027778</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37574,10 +36586,8 @@
           <t>3465397120</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:48</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44081.50680555555</v>
       </c>
       <c r="I504" t="n">
         <v>2</v>
@@ -37653,10 +36663,8 @@
           <t>3465389580</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:48</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44081.50680555555</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37724,10 +36732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:45</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44081.50677083333</v>
       </c>
       <c r="I506" t="n">
         <v>25</v>
@@ -37803,10 +36809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:41</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44081.50672453704</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37874,10 +36878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:40</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44081.50671296296</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37945,10 +36947,8 @@
           <t>3465395762</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:37</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44081.50667824074</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -38016,10 +37016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:29</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44081.50658564815</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -38095,10 +37093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:27</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44081.5065625</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -38174,10 +37170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:19</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44081.50646990741</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38253,10 +37247,8 @@
           <t>3465393005</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:17</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44081.50644675926</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38328,10 +37320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:13</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44081.50640046296</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38407,10 +37397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:09:04</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44081.5062962963</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38478,10 +37466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:46</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44081.50608796296</v>
       </c>
       <c r="I516" t="n">
         <v>165</v>
@@ -38557,10 +37543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:44</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44081.50606481481</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38632,10 +37616,8 @@
           <t>3465392450</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:44</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44081.50606481481</v>
       </c>
       <c r="I518" t="n">
         <v>17</v>
@@ -38707,10 +37689,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:41</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44081.50603009259</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38778,10 +37758,8 @@
           <t>3465392350</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:39</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44081.50600694444</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38857,10 +37835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:32</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44081.50592592593</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38924,10 +37900,8 @@
           <t>3465392143</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:27</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44081.50586805555</v>
       </c>
       <c r="I522" t="n">
         <v>13</v>
@@ -38999,10 +37973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:26</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44081.50585648148</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -39078,10 +38050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:25</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44081.50584490741</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39149,10 +38119,8 @@
           <t>3465395762</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:25</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44081.50584490741</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39216,10 +38184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:22</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44081.50581018518</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39288,10 +38254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:20</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44081.50578703704</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39367,10 +38331,8 @@
           <t>3465395647</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:18</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44081.50576388889</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39434,10 +38396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:17</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44081.50575231481</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39513,10 +38473,8 @@
           <t>3465395633</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:17</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44081.50575231481</v>
       </c>
       <c r="I530" t="n">
         <v>10</v>
@@ -39592,10 +38550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:16</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44081.50574074074</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39671,10 +38627,8 @@
           <t>3465395609</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:16</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44081.50574074074</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39750,10 +38704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:15</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44081.50572916667</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39825,10 +38777,8 @@
           <t>3465391926</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:15</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44081.50572916667</v>
       </c>
       <c r="I534" t="n">
         <v>42</v>
@@ -39888,10 +38838,8 @@
           <t>3465387966</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:14</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44081.50571759259</v>
       </c>
       <c r="I535" t="n">
         <v>49</v>
@@ -39967,10 +38915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:03</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44081.50559027777</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -40042,10 +38988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:08:03</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44081.50559027777</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -40122,10 +39066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:57</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44081.50552083334</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -40193,10 +39135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:57</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44081.50552083334</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40272,10 +39212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:53</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44081.50547453704</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40351,10 +39289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:49</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44081.50542824074</v>
       </c>
       <c r="I541" t="n">
         <v>19</v>
@@ -40422,10 +39358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:48</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44081.50541666667</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40497,10 +39431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:47</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44081.50540509259</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40568,10 +39500,8 @@
           <t>3465395111</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:46</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44081.50539351852</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40643,10 +39573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:44</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44081.50537037037</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40710,10 +39638,8 @@
           <t>3465384990</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:39</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44081.5053125</v>
       </c>
       <c r="I546" t="n">
         <v>13</v>
@@ -40785,10 +39711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:38</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44081.50530092593</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40852,10 +39776,8 @@
           <t>3465387272</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:36</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44081.50527777777</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40927,10 +39849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:35</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44081.50526620371</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -41006,10 +39926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:34</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44081.50525462963</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -41085,10 +40003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:24</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44081.50513888889</v>
       </c>
       <c r="I551" t="n">
         <v>42</v>
@@ -41152,10 +40068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:24</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44081.50513888889</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -41231,10 +40145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:22</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44081.50511574074</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41302,10 +40214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:22</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44081.50511574074</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41377,10 +40287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:21</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44081.50510416667</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -41448,10 +40356,8 @@
           <t>3465384628</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:18</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44081.50506944444</v>
       </c>
       <c r="I556" t="n">
         <v>3</v>
@@ -41528,10 +40434,8 @@
           <t>3465384579</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:15</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44081.50503472222</v>
       </c>
       <c r="I557" t="n">
         <v>34</v>
@@ -41608,10 +40512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:14</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44081.50502314815</v>
       </c>
       <c r="I558" t="n">
         <v>2</v>
@@ -41687,10 +40589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:11</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44081.50498842593</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41762,10 +40662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:09</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44081.50496527777</v>
       </c>
       <c r="I560" t="n">
         <v>2</v>
@@ -41833,10 +40731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:05</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44081.50491898148</v>
       </c>
       <c r="I561" t="n">
         <v>113</v>
@@ -41904,10 +40800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:02</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44081.50488425926</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41975,10 +40869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:02</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44081.50488425926</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -42046,10 +40938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:07:00</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44081.50486111111</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -42113,10 +41003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:58</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44081.50483796297</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42184,10 +41072,8 @@
           <t>3465384286</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:58</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44081.50483796297</v>
       </c>
       <c r="I566" t="n">
         <v>4</v>
@@ -42259,10 +41145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:56</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44081.50481481481</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -42330,10 +41214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:56</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44081.50481481481</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42397,10 +41279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:55</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44081.50480324074</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42476,10 +41356,8 @@
           <t>3465386470</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:53</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44081.50478009259</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42555,10 +41433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:52</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44081.50476851852</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42630,10 +41506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:49</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44081.5047337963</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42697,10 +41571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:47</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44081.50471064815</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42768,10 +41640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:46</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44081.50469907407</v>
       </c>
       <c r="I574" t="n">
         <v>71</v>
@@ -42839,10 +41709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:43</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44081.50466435185</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42918,10 +41786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:43</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44081.50466435185</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42993,10 +41859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:40</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44081.50462962963</v>
       </c>
       <c r="I577" t="n">
         <v>6</v>
@@ -43068,10 +41932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:40</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44081.50462962963</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -43143,10 +42005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:40</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44081.50462962963</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -43218,10 +42078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:40</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44081.50462962963</v>
       </c>
       <c r="I580" t="n">
         <v>4</v>
@@ -43289,10 +42147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:40</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44081.50462962963</v>
       </c>
       <c r="I581" t="n">
         <v>327</v>
@@ -43360,10 +42216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:39</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44081.50461805556</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43439,10 +42293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:38</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44081.50460648148</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43510,10 +42362,8 @@
           <t>3465386209</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:38</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44081.50460648148</v>
       </c>
       <c r="I584" t="n">
         <v>70</v>
@@ -43581,10 +42431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:35</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44081.50457175926</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43656,10 +42504,8 @@
           <t>3465386140</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:33</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44081.50454861111</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43731,10 +42577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:30</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44081.50451388889</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43794,10 +42638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:27</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44081.50447916667</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43857,10 +42699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:27</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44081.50447916667</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43932,10 +42772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:27</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44081.50447916667</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -44011,10 +42849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:26</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44081.50446759259</v>
       </c>
       <c r="I591" t="n">
         <v>2</v>
@@ -44091,10 +42927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:26</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44081.50446759259</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -44170,10 +43004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:24</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44081.50444444444</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44237,10 +43069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:21</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44081.50440972222</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44304,10 +43134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:21</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44081.50440972222</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44375,10 +43203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:19</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44081.50438657407</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44438,10 +43264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:19</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44081.50438657407</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44509,10 +43333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:19</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44081.50438657407</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44572,10 +43394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:17</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44081.50436342593</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44647,10 +43467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:16</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44081.50435185185</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44726,10 +43544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44797,10 +43613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44872,10 +43686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44947,10 +43759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:11</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44081.50429398148</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -45018,10 +43828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:09</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44081.50427083333</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -45085,10 +43893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:09</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44081.50427083333</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -45156,10 +43962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:06</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44081.50423611111</v>
       </c>
       <c r="I607" t="n">
         <v>1798</v>
@@ -45235,10 +44039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:04</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44081.50421296297</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45314,10 +44116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:03</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44081.50420138889</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -45385,10 +44185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:03</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44081.50420138889</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45458,10 +44256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:03</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44081.50420138889</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45529,10 +44325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:01</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44081.50417824074</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45596,10 +44390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:01</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44081.50417824074</v>
       </c>
       <c r="I613" t="n">
         <v>422</v>
@@ -45663,10 +44455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:01</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44081.50417824074</v>
       </c>
       <c r="I614" t="n">
         <v>701</v>
@@ -45734,10 +44524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:00</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44081.50416666667</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45813,10 +44601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:00</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44081.50416666667</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45892,10 +44678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:06:00</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44081.50416666667</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45971,10 +44755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:59</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44081.5041550926</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -46042,10 +44824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:59</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44081.5041550926</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -46113,10 +44893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:58</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44081.50414351852</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -46192,10 +44970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:57</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44081.50413194444</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -46263,10 +45039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:57</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44081.50413194444</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -46334,10 +45108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:56</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44081.50412037037</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46405,10 +45177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:55</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44081.5041087963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46480,10 +45250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:55</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44081.5041087963</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46555,10 +45323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:48</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44081.50402777778</v>
       </c>
       <c r="I626" t="n">
         <v>1</v>
@@ -46634,10 +45400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:46</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44081.50400462963</v>
       </c>
       <c r="I627" t="n">
         <v>2</v>
@@ -46713,10 +45477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:45</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44081.50399305556</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46792,10 +45554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:05:45</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44081.50399305556</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
